--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_GAAPSourceObjectProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_GAAPSourceObjectProfile_Regression_001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRDIGHE\Documents\MDOT Project\MSTARSUI_Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB4387B-2E53-4176-968F-089F5E5D1A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6C914C-AFB9-4F92-8CC6-80DC8B117F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18130" windowHeight="8630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -66,19 +66,43 @@
     <t>SM_LeftPanel</t>
   </si>
   <si>
-    <t>Navigate to Foundational</t>
-  </si>
-  <si>
     <t>Adding Valid data into the fields</t>
   </si>
   <si>
-    <t>TC_SM_GAAPSourceObjectProfile_ListView</t>
-  </si>
-  <si>
-    <t>TC_SM_GAAPSourceObjectProfile_Details</t>
-  </si>
-  <si>
-    <t>Navigate to GAAP Source/Object Profile List View</t>
+    <t>UserAgencySelection</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Navigate to Chart of Accounts</t>
+  </si>
+  <si>
+    <t>TC_SM_FOU_ListView_D1</t>
+  </si>
+  <si>
+    <t>Navigate to Program Code Profile</t>
+  </si>
+  <si>
+    <t>BackToList</t>
+  </si>
+  <si>
+    <t>Back to List View</t>
+  </si>
+  <si>
+    <t>TC_SM_FOU_DeleteProfile</t>
+  </si>
+  <si>
+    <t>Delete the user details</t>
+  </si>
+  <si>
+    <t>TC_SM_FOU_GAAPSourceObjectProfile_AddNewProfile</t>
+  </si>
+  <si>
+    <t>TC_SM_FOU_GAAPSourceObjectProfile_EditProfile</t>
+  </si>
+  <si>
+    <t>Login_Logout</t>
   </si>
 </sst>
 </file>
@@ -150,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -161,6 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,20 +466,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="18.6328125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -502,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -514,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -522,10 +548,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -542,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -554,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -562,10 +588,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -574,6 +600,124 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>1</v>
       </c>
     </row>
